--- a/ocr_test/facter/th/facter_th2.xlsx
+++ b/ocr_test/facter/th/facter_th2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAMSystech\yjh\ipynb\deep-text-recognition-benchmark\ocr_test\facter\th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA4592F-8EAB-44F4-816A-52EEC2F9F926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362EA4BF-85A4-4BE8-9D39-E759FA9B0205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13605" yWindow="1125" windowWidth="12525" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,6 +175,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>513073</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>199764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BE1951-2196-9693-5FD5-D5AC155AF8C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2933700"/>
+          <a:ext cx="10219048" cy="2085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,10 +514,13 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -703,5 +755,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>